--- a/data/income_statement/2digits/size/78_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/78_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>78-Employment activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>78-Employment activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>906522.95294</v>
@@ -962,31 +868,36 @@
         <v>1792641.30701</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2103576.59528</v>
+        <v>2152154.62629</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2613266.21366</v>
+        <v>2665170.04268</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3577736.51935</v>
+        <v>3663638.96872</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4370730.53008</v>
+        <v>4388268.94316</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>4961530.86171</v>
+        <v>4949521.53239</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>15036918.24883</v>
+        <v>15094863.95385</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>21599962.42757</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>21712733.93841</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>26298790.597</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>804801.197</v>
@@ -1001,31 +912,36 @@
         <v>1716401.8651</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2079082.53552</v>
+        <v>2127660.56653</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2575392.27698</v>
+        <v>2627296.106</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3504369.81458</v>
+        <v>3590272.263950001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4274980.62312</v>
+        <v>4292459.20489</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>4845027.27703</v>
+        <v>4833019.35461</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>14676399.48529</v>
+        <v>14734260.19832</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>21130629.83332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>21244220.4758</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>25943639.343</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>87578.2507</v>
@@ -1060,11 +976,16 @@
       <c r="M7" s="48" t="n">
         <v>108025.98731</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>74596.21400000001</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>14143.50524</v>
@@ -1088,22 +1009,27 @@
         <v>47330.65242</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>69050.42402999999</v>
+        <v>69110.25534</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>72249.39161000001</v>
+        <v>72247.98471</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>297187.01035</v>
+        <v>297272.0023399999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>361306.60694</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>360487.4753</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>280555.04</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>2662.37977</v>
@@ -1118,7 +1044,7 @@
         <v>2878.49531</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>4329.48334</v>
+        <v>4455.5895</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>5828.55567</v>
@@ -1133,16 +1059,21 @@
         <v>24787.86662</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>26974.26288</v>
+        <v>26875.8332</v>
       </c>
       <c r="M9" s="47" t="n">
         <v>24850.2459</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>82276.637</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>2471.9882</v>
@@ -1157,7 +1088,7 @@
         <v>2853.75732</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4044.30725</v>
+        <v>4170.41341</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>4881.71299</v>
@@ -1172,16 +1103,21 @@
         <v>20698.97614</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>22258.86555</v>
+        <v>22160.43587</v>
       </c>
       <c r="M10" s="48" t="n">
         <v>17390.16787</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>78956.852</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>0.26</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>3189.72771</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>910.679</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>190.13157</v>
@@ -1255,14 +1196,19 @@
       <c r="M12" s="48" t="n">
         <v>4270.35032</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>2409.106</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>903860.5731700001</v>
+        <v>903860.57317</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>1205748.36518</v>
@@ -1274,34 +1220,39 @@
         <v>1789762.8117</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2099247.11194</v>
+        <v>2147699.03679</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2607437.65799</v>
+        <v>2659341.48701</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3570718.834559999</v>
+        <v>3656621.28393</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4355941.49151</v>
+        <v>4373479.90459</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>4936742.99509</v>
+        <v>4924733.665770001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>15009943.98595</v>
+        <v>15067988.12065</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>21575112.18167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>21687883.69251</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>26216513.96</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>905333.86435</v>
+        <v>905333.8643500002</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>1191981.93593</v>
@@ -1313,31 +1264,36 @@
         <v>1781623.99808</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2111296.36446</v>
+        <v>2158354.5647</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2621354.50612</v>
+        <v>2671230.69371</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3457380.80922</v>
+        <v>3540756.78513</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4202179.27437</v>
+        <v>4219469.65152</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>4858598.49838</v>
+        <v>4852638.77853</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>14094962.88256</v>
+        <v>14106905.63727</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>20288664.61743</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>20371358.08136</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>24665368.706</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>101925.28034</v>
@@ -1352,13 +1308,13 @@
         <v>17385.21684</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>20093.16964</v>
+        <v>23585.04136</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>22195.32875</v>
+        <v>23503.53776</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>21755.60474</v>
+        <v>23367.34705</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>71028.11768</v>
@@ -1367,16 +1323,21 @@
         <v>33914.94957</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>72727.57341</v>
+        <v>72727.57341000001</v>
       </c>
       <c r="M15" s="48" t="n">
         <v>76333.91804</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>137898.028</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>83273.17359999999</v>
@@ -1391,31 +1352,36 @@
         <v>71384.96647999999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>38004.93891</v>
+        <v>64413.71452999999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>68599.74915</v>
+        <v>97102.88043999999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>80131.56556</v>
+        <v>115464.69598</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>154621.86127</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>132913.59563</v>
+        <v>126953.87578</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>237721.47696</v>
+        <v>237721.67696</v>
       </c>
       <c r="M16" s="48" t="n">
         <v>261848.42008</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>220709.475</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>718802.4845599999</v>
@@ -1430,31 +1396,36 @@
         <v>1669109.70085</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2053188.08642</v>
+        <v>2070345.63932</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2530372.91462</v>
+        <v>2550437.76191</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3355054.36309</v>
+        <v>3401485.466270001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3972707.01576</v>
+        <v>3989997.39291</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>4691520.911760001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>13780005.65217</v>
+        <v>13791948.20688</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>19947206.87062</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>20029900.33455</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>24240974.124</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1332.92585</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>3275.40869</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>65787.079</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>-1473.29118</v>
@@ -1505,73 +1481,83 @@
         <v>22590.83016</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>8138.813619999997</v>
+        <v>8138.813620000001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>-12049.25252</v>
+        <v>-10655.52791</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>-13916.84813</v>
+        <v>-11889.2067</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>113338.02534</v>
+        <v>115864.4988</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>153762.21714</v>
+        <v>154010.25307</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>78144.49671000001</v>
+        <v>72094.88724</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>914981.1033899999</v>
+        <v>961082.48338</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1286447.56424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1316525.61115</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1551145.254</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>55818.59181000001</v>
+        <v>55797.3288</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>69442.60426000001</v>
+        <v>69426.43655</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>85259.99877000001</v>
+        <v>85241.12945000001</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>113151.55682</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>118812.11599</v>
+        <v>119380.8684</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>159049.64833</v>
+        <v>160107.16989</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>195740.39222</v>
+        <v>197639.27748</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>223340.96719</v>
+        <v>222443.29597</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>249642.32996</v>
+        <v>242615.52531</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>732029.45361</v>
+        <v>746802.02628</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>969904.44571</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>966450.65189</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1215288.401</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2.41464</v>
@@ -1606,14 +1592,19 @@
       <c r="M21" s="48" t="n">
         <v>274.48878</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>701.8869999999999</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>9060.675670000001</v>
+        <v>9039.41266</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>12223.63064</v>
@@ -1634,100 +1625,115 @@
         <v>38025.16753</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>42016.12421</v>
+        <v>41982.72421</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>61224.68807</v>
+        <v>55431.83806999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>93833.68256</v>
+        <v>111784.6002</v>
       </c>
       <c r="M22" s="48" t="n">
         <v>98436.28449999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="48" t="n">
+        <v>100980.901</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>46755.5015</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>57218.97362</v>
+        <v>57202.80591</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>74848.43618999999</v>
+        <v>74829.56687000001</v>
       </c>
       <c r="F23" s="48" t="n">
         <v>109198.14942</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>108371.56825</v>
+        <v>108940.32066</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>142339.85933</v>
+        <v>143397.38089</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>157715.22469</v>
+        <v>159614.10995</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>181324.84298</v>
+        <v>180460.57176</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>188417.64189</v>
+        <v>187183.68724</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>637972.44964</v>
+        <v>634794.10467</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>871193.67243</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>867739.87861</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1113605.613</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-57291.88299000001</v>
+        <v>-57270.61998</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-55676.17501</v>
+        <v>-55660.0073</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-62669.16861</v>
+        <v>-62650.29929</v>
       </c>
       <c r="F24" s="47" t="n">
         <v>-105012.7432</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-130861.36851</v>
+        <v>-130036.39631</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-172966.49646</v>
+        <v>-171996.37659</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-82402.36688000002</v>
+        <v>-81774.77867999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-69578.75005000002</v>
+        <v>-68433.04289999999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-171497.83325</v>
+        <v>-170520.63807</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>182951.64978</v>
+        <v>214280.4571</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>316543.11853</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>350074.95926</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>335856.853</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>9552.583970000002</v>
@@ -1742,31 +1748,36 @@
         <v>12215.13397</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>16809.10203</v>
+        <v>16947.67721</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>61538.65935</v>
+        <v>61627.50236999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>28242.1825</v>
+        <v>28922.94186</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>43095.69493</v>
+        <v>43115.01003</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>39297.89001</v>
+        <v>39128.4212</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>311799.54354</v>
+        <v>176413.57246</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>124861.7092</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>120386.61783</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>116968.74</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>208.39799</v>
@@ -1790,7 +1801,7 @@
         <v>653.25883</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>437.09798</v>
+        <v>451.51541</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>789.4899</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>182.35397</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>136.701</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>299.00883</v>
@@ -1829,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>13286.16621</v>
+        <v>13327.63348</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>58.99127000000001</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>5099.91448</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>330.683</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>1154.18884</v>
@@ -1859,31 +1880,36 @@
         <v>4914.65659</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>6300.83819</v>
+        <v>6336.83903</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>8120.6968</v>
+        <v>8165.07878</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>9944.740589999999</v>
+        <v>10232.42268</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>10015.80936</v>
+        <v>9979.23976</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>13578.25083</v>
+        <v>13408.78202</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>41453.95922</v>
+        <v>33554.58501</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>50550.36129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>50588.6177</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>44088.458</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>921.0607000000001</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>336.95032</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>740.446</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>915.6581200000002</v>
@@ -1937,13 +1968,13 @@
         <v>791.1309299999999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1110.69841</v>
+        <v>1159.33494</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>756.4998900000001</v>
+        <v>767.2569599999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1198.48924</v>
+        <v>1350.96737</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>492.60022</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>11630.97554</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>5931.898</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>277.6833</v>
@@ -1982,7 +2018,7 @@
         <v>922.73751</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1392.38044</v>
+        <v>1392.38152</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>2108.44558</v>
@@ -1991,16 +2027,21 @@
         <v>1835.65106</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>5026.286679999999</v>
+        <v>3676.08379</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>5232.84783</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>3921.324</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>4284.72822</v>
@@ -2027,19 +2068,24 @@
         <v>4328.76779</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>5828.860029999999</v>
+        <v>5828.86003</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>193386.3384</v>
+        <v>67249.94442</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>15662.419</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>11149.07122</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>21933.014</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1.01096</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>1491.85797</v>
@@ -2132,13 +2188,13 @@
         <v>3976.39464</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>4076.56045</v>
+        <v>4130.498259999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>47643.27164</v>
+        <v>47676.97561</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>10062.7538</v>
+        <v>10303.35186</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>12425.29338</v>
@@ -2152,11 +2208,16 @@
       <c r="M35" s="48" t="n">
         <v>36164.87581000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="48" t="n">
+        <v>39886.216</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>8681.253560000001</v>
@@ -2171,13 +2232,13 @@
         <v>9958.21285</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>8336.683800000001</v>
+        <v>8437.88672</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>58083.17843</v>
+        <v>58266.39456</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>12491.36605</v>
+        <v>12504.63156</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>15157.90245</v>
@@ -2186,16 +2247,21 @@
         <v>22029.72107</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>212200.71667</v>
+        <v>88965.27886000001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>78147.95243</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>72996.01905</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>60693.631</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>413.43983</v>
@@ -2219,7 +2285,7 @@
         <v>45.63594999999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>81.78918999999999</v>
+        <v>81.78919</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>650.3114199999999</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>189.04061</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>303.936</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1862.82024</v>
@@ -2249,10 +2320,10 @@
         <v>3841.68152</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2005.14324</v>
+        <v>2105.54749</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2966.42837</v>
+        <v>3120.90759</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>1943.95002</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>41719.27024000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>11901.068</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2303,16 +2379,21 @@
         <v>31.23008</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>13.77257</v>
+        <v>13.57994</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>1.12974</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>395.601</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>3968.23592</v>
@@ -2342,16 +2423,21 @@
         <v>3294.13587</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>182229.26844</v>
+        <v>58994.02325999999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>12785.2031</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>7633.269719999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>14477.571</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>2436.75757</v>
@@ -2444,13 +2540,13 @@
         <v>4611.99569</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4207.64983</v>
+        <v>4208.4485</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>50734.3646</v>
+        <v>50763.10151</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>7712.40373</v>
+        <v>7725.66924</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>11242.21265</v>
@@ -2464,89 +2560,104 @@
       <c r="M43" s="48" t="n">
         <v>23453.30874</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>33615.455</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>21044.82302</v>
+        <v>21044.53166</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>3161.80182</v>
+        <v>3161.31895</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4795.2958</v>
+        <v>4795.17692</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>4575.35173</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>5921.4593</v>
+        <v>6006.5454</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>10401.21795</v>
+        <v>10630.33669</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>22869.18317</v>
+        <v>23444.76943</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>23613.58415</v>
+        <v>23640.10848</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>27551.86598</v>
+        <v>27122.90907</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>52616.1027</v>
+        <v>50468.34508</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>54595.34745</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>51156.90979</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>64855.855</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>17950.75666</v>
+        <v>17950.4653</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1248.13114</v>
+        <v>1247.64827</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>3829.27023</v>
+        <v>3829.15135</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>4575.35173</v>
+        <v>4575.351729999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>5918.02686</v>
+        <v>6003.11296</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>10353.16393</v>
+        <v>10582.28267</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>22615.68089</v>
+        <v>23191.26715</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>23611.98789</v>
+        <v>23638.51222</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>27333.86275</v>
+        <v>26904.90584</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>51635.82028</v>
+        <v>49488.06266</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>53599.67814</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>50161.24047999999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>63177.019</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>3094.06636</v>
@@ -2581,50 +2692,60 @@
       <c r="M46" s="48" t="n">
         <v>995.6693100000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>1678.836</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-77465.3756</v>
+        <v>-77443.82122999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-52882.01019000001</v>
+        <v>-52865.35961</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-91739.023</v>
+        <v>-91720.03479999999</v>
       </c>
       <c r="F47" s="47" t="n">
         <v>-107331.17381</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-128310.40958</v>
+        <v>-127533.15122</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-179912.23349</v>
+        <v>-179265.60547</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-89520.73360000001</v>
+        <v>-88801.23781000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-65254.54172</v>
+        <v>-64116.04380000001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-181781.53029</v>
+        <v>-180544.84701</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>229934.37395</v>
+        <v>251260.40562</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>308661.52785</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>346308.64825</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>327276.107</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>5325.15497</v>
@@ -2639,31 +2760,36 @@
         <v>9193.534079999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>18235.59621</v>
+        <v>18385.59524</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>9714.816359999999</v>
+        <v>9927.359190000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>12056.33397</v>
+        <v>12552.42886</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>22780.60173</v>
+        <v>22788.75121</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>42099.13796</v>
+        <v>42089.34437</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>134364.30731</v>
+        <v>134620.03338</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>160603.97869</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>160589.52795</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>159422.509</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>9.55362</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>2263.45838</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>2480.129</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>5315.60135</v>
@@ -2717,31 +2848,36 @@
         <v>9191.74696</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>17794.69708</v>
+        <v>17944.69611</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>9705.381789999999</v>
+        <v>9917.924620000002</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>11986.25443</v>
+        <v>12482.34932</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>22619.01248</v>
+        <v>22627.16196</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>41967.20992</v>
+        <v>41957.41633</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>132729.1176</v>
+        <v>132984.84367</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>158340.52031</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>158326.06957</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>156942.38</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>803.3318399999999</v>
@@ -2756,31 +2892,36 @@
         <v>3741.6244</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>3507.23399</v>
+        <v>4813.751730000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>6469.335669999999</v>
+        <v>7616.573719999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>43989.50455999999</v>
+        <v>44067.18185</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>39875.52924</v>
+        <v>38461.97034000001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>36572.53583</v>
+        <v>36566.34355</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>136931.37886</v>
+        <v>136921.53496</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>220464.06562</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>220873.48261</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>203693.862</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>189.43792</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>188.185</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>132.65683</v>
@@ -2846,7 +2992,7 @@
         <v>2990.69622</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1960.51515</v>
+        <v>1960.11969</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>8691.4166</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>8365.0332</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>11084.949</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>670.67501</v>
@@ -2873,70 +3024,80 @@
         <v>2686.05202</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>2853.33769</v>
+        <v>4159.85543</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>6027.10153</v>
+        <v>7174.33958</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>42517.93218</v>
+        <v>42595.60947</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>36884.83302</v>
+        <v>35471.27412</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>34612.02068</v>
+        <v>34606.22386</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>127984.55688</v>
+        <v>127974.71298</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>211909.5945</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>212319.01149</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>192420.728</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-72943.55247</v>
+        <v>-72921.99810000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-43071.67862</v>
+        <v>-43055.02804</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-102067.96736</v>
+        <v>-102048.97916</v>
       </c>
       <c r="F55" s="47" t="n">
         <v>-101879.26413</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-113582.04736</v>
+        <v>-113961.30771</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-176666.7528</v>
+        <v>-176954.82</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-121453.90419</v>
+        <v>-120315.9908</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-82349.46923</v>
+        <v>-79789.26293</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-176254.92816</v>
+        <v>-175021.84619</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>227367.3024</v>
+        <v>248958.90404</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>248801.44092</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>286024.69359</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>283004.754</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>3271.66234</v>
@@ -2951,67 +3112,75 @@
         <v>5790.38071</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>5992.09793</v>
+        <v>6152.094270000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>7053.01466</v>
+        <v>7224.84883</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>10189.57834</v>
+        <v>10427.98289</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>14837.70758</v>
+        <v>14858.70931</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>17592.11444</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>125639.13016</v>
+        <v>126301.81012</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>249951.72568</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>252786.69834</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>236965.276</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-76215.21481</v>
+        <v>-76193.66043999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-45906.54669</v>
+        <v>-45889.89611</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-109240.83416</v>
+        <v>-109221.84596</v>
       </c>
       <c r="F57" s="47" t="n">
         <v>-107669.64484</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-119574.14529</v>
+        <v>-120113.40198</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-183719.76746</v>
+        <v>-184179.66883</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-131643.48253</v>
+        <v>-130743.97369</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-97187.17680999999</v>
+        <v>-94647.97224</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-193847.0426</v>
+        <v>-192613.96063</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>101728.17224</v>
+        <v>122657.09392</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-1150.284760000005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>33237.99524999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>46039.478</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F59" s="35" t="n">
         <v>68</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J59" s="35" t="n">
         <v>125</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>302</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>